--- a/тест-кейс Angular.io.xlsx
+++ b/тест-кейс Angular.io.xlsx
@@ -18,6 +18,212 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="67">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Test name</t>
+  </si>
+  <si>
+    <t>Step name</t>
+  </si>
+  <si>
+    <t>Step description</t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>open website</t>
+  </si>
+  <si>
+    <t>open https://angular.io/docs</t>
+  </si>
+  <si>
+    <t>Go to https://angular.io/docs</t>
+  </si>
+  <si>
+    <t>Website opens. There is a menu of all website on the top. On the left is "GETTING STARTED", "TUTORIAL", … . Basic information is on the right</t>
+  </si>
+  <si>
+    <t>проверка функционирования кнопок</t>
+  </si>
+  <si>
+    <t>проверка левого меню https://angular.io/docs</t>
+  </si>
+  <si>
+    <t>нажать на "GETTING STARTED"</t>
+  </si>
+  <si>
+    <t>открытие новой страницы https://angular.io/guide/quickstart</t>
+  </si>
+  <si>
+    <t>нажать на  "TUTORIAL"</t>
+  </si>
+  <si>
+    <t>появление выпадающего списка</t>
+  </si>
+  <si>
+    <t>нажать "1. Introduction"</t>
+  </si>
+  <si>
+    <t>открытие новой страницы https://angular.io/tutorial</t>
+  </si>
+  <si>
+    <t>проверка верхнего меню https://angular.io/docs</t>
+  </si>
+  <si>
+    <t>нажать на лого</t>
+  </si>
+  <si>
+    <t>открытие новой страницы https://angular.io/</t>
+  </si>
+  <si>
+    <t>нажать на кнопку свернуть меню</t>
+  </si>
+  <si>
+    <t>левое меню скрылось</t>
+  </si>
+  <si>
+    <t>открытие новой страницы https://angular.io/features</t>
+  </si>
+  <si>
+    <t>проверка основного тела страницы https://angular.io/docs</t>
+  </si>
+  <si>
+    <t>нажать на блок "Get a Glimpse of Angular"</t>
+  </si>
+  <si>
+    <t>открытие новой страницы https://stackblitz.com/angular/gllyrlxmbpd</t>
+  </si>
+  <si>
+    <t>проверка функционирования гипер линок</t>
+  </si>
+  <si>
+    <t>проверка работы гиперсылок на старнице https://angular.io/docs</t>
+  </si>
+  <si>
+    <t>нажать на гиперссылку "JavaScript"</t>
+  </si>
+  <si>
+    <t>открытие новой страницы https://developer.mozilla.org/en-US/docs/Web/JavaScript/A_re-introduction_to_JavaScript</t>
+  </si>
+  <si>
+    <t>проверка работы гиперсылок в нижней части страницы https://angular.io/docs</t>
+  </si>
+  <si>
+    <t>спуститься на низ страницы</t>
+  </si>
+  <si>
+    <t>Видим футер с синим background. Отображены ссылки на новые страницы сайта</t>
+  </si>
+  <si>
+    <t>нажать на гиперссылку "About"</t>
+  </si>
+  <si>
+    <t>открытие новой страницы https://angular.io/about?group=Angular</t>
+  </si>
+  <si>
+    <t>нажать на  "features"</t>
+  </si>
+  <si>
+    <t>открыть пункт "TECHNIQUES"</t>
+  </si>
+  <si>
+    <t>появился выпадающий список "Internationalization (i18n)", "Language Service", ….</t>
+  </si>
+  <si>
+    <t>открыть подпункт "Setup &amp; Deployment"</t>
+  </si>
+  <si>
+    <t>"Setup for local development", "Anatomy of the Setup", ….</t>
+  </si>
+  <si>
+    <t>левое меню открылось и остались открытыми все ранее выбраные пункты и подпункты</t>
+  </si>
+  <si>
+    <t>проверка отображения сайта при разных условиях</t>
+  </si>
+  <si>
+    <t xml:space="preserve">проверка кроссбраузерности сайта </t>
+  </si>
+  <si>
+    <t>Go to https://angular.io/docs in Google Chrome</t>
+  </si>
+  <si>
+    <t>Go to https://angular.io/docs in Mozilla Firefox</t>
+  </si>
+  <si>
+    <t>Go to https://angular.io/docs in Internet Explorer</t>
+  </si>
+  <si>
+    <t>Go to https://angular.io/docs in Safari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">проверка аддаптивности сайта </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go to https://angular.io/docs  </t>
+  </si>
+  <si>
+    <t>Открыть код разработчика и поставить разрешение экрана 2000px</t>
+  </si>
+  <si>
+    <t>Actual result</t>
+  </si>
+  <si>
+    <t>as expected</t>
+  </si>
+  <si>
+    <t>основная часть сайт отображается без искажений,кроме левого меню (текс отображен нечетко)</t>
+  </si>
+  <si>
+    <t>разрешение экрана &gt; 1192 px</t>
+  </si>
+  <si>
+    <t>Положение элементов сайта без изменений</t>
+  </si>
+  <si>
+    <t>разрешение экрана   993px&lt; X &lt; 1192 px</t>
+  </si>
+  <si>
+    <t>Происходит аддаптация сайта, один из блоков опустился ниже остальных</t>
+  </si>
+  <si>
+    <t>разрешение экрана    X &lt; 993px</t>
+  </si>
+  <si>
+    <t>Левое меню автомотически скрывается</t>
+  </si>
+  <si>
+    <t>разрешение экрана    X &lt;  587px</t>
+  </si>
+  <si>
+    <t>Происходит аддаптация сайта, все блоки выстраиваются друг за другом по вертикали</t>
+  </si>
+  <si>
+    <t>проверка перевода сайта на другой, предлагаемый язык</t>
+  </si>
+  <si>
+    <t>проверка перевода на китайский язык</t>
+  </si>
+  <si>
+    <t>В нижней части сайта нажать на ссылку "中文版"</t>
+  </si>
+  <si>
+    <t>Вся страница переведена на китайском языке</t>
+  </si>
+  <si>
+    <t>Часть названий остались на английском языке "Angular", "JavaScript", …</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
@@ -29,15 +235,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -45,15 +257,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -68,10 +349,103 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>512973</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>64644</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13942219" y="12430125"/>
+          <a:ext cx="7192379" cy="2505425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>510507</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>52863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13942219" y="16764000"/>
+          <a:ext cx="6582694" cy="3410426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -109,12 +483,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +523,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -181,7 +555,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -331,12 +705,643 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="29.85546875" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" customWidth="1"/>
+    <col min="8" max="8" width="48.5703125" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="3:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F7" s="7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F8" s="4">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F9" s="4">
+        <v>4</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F10" s="4">
+        <v>5</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="4">
+        <v>6</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="4">
+        <v>7</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="4">
+        <v>8</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F14" s="4">
+        <v>9</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F15" s="4">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="9"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="2:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="3">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F20" s="4">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="4">
+        <v>4</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="3">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="3">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="3">
+        <v>7</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F31" s="3">
+        <v>3</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="3">
+        <v>8</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="3">
+        <v>2</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F35" s="3">
+        <v>3</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F36" s="3">
+        <v>4</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="3">
+        <v>9</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" ht="192" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="3">
+        <v>2</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F40" s="3">
+        <v>3</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F41" s="3">
+        <v>4</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F42" s="3">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F43" s="3">
+        <v>6</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="3">
+        <v>10</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" ht="264.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="3">
+        <v>2</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>